--- a/bin/Debug/net6.0-windows/PeopleExtract.xlsx
+++ b/bin/Debug/net6.0-windows/PeopleExtract.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -32,33 +32,6 @@
   </x:si>
   <x:si>
     <x:t>City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Donald</x:t>
-  </x:si>
-  <x:si>
-    <x:t>London</x:t>
-  </x:si>
-  <x:si>
-    <x:t>England</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chicago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>United States</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jennifer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michael</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pat</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -104,20 +77,13 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -416,7 +382,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F6"/>
+  <x:dimension ref="A1:F1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -440,106 +406,6 @@
       </x:c>
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="1">
-        <x:v>44734</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="1">
-        <x:v>44734</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="1">
-        <x:v>44734</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="1">
-        <x:v>44734</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="1">
-        <x:v>44734</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
